--- a/data/prepr/mean_base_metrics.xlsx
+++ b/data/prepr/mean_base_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>lasso_r2_mean</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ard_regr_r2_mean</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>capm_model_mse_mean</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ff3_model_mse_mean</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ff4_model_mse_mean</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ff5_model_mse_mean</t>
         </is>
@@ -494,17 +504,23 @@
         <v>0.4175481636402292</v>
       </c>
       <c r="F2" t="n">
+        <v>0.3729698380648245</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.4289884103334795</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.009849046851595719</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.009511477399911615</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.009511477399911615</v>
       </c>
       <c r="I2" t="n">
         <v>0.009511477399911615</v>
       </c>
+      <c r="J2" t="n">
+        <v>0.009511477399911615</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.009511477399911615</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,17 +541,23 @@
         <v>0.3723826567066577</v>
       </c>
       <c r="F3" t="n">
+        <v>0.1961355361310686</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2871712777251716</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.008396549938028729</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.008217226635958468</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.008217226635958468</v>
       </c>
       <c r="I3" t="n">
         <v>0.008217226635958468</v>
       </c>
+      <c r="J3" t="n">
+        <v>0.008217226635958468</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.008217226635958468</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +578,23 @@
         <v>0.4070687508644553</v>
       </c>
       <c r="F4" t="n">
+        <v>0.3567742226315133</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4019650989787256</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.01019830678471604</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.009955035313838555</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.009955035313838555</v>
       </c>
       <c r="I4" t="n">
         <v>0.009955035313838555</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.009955035313838555</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.009955035313838555</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -587,17 +615,23 @@
         <v>0.5442290419141216</v>
       </c>
       <c r="F5" t="n">
+        <v>0.4257665024827937</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4699213660721526</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.005644989855465353</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.005505894769751366</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.005505894769751366</v>
       </c>
       <c r="I5" t="n">
         <v>0.005505894769751366</v>
       </c>
+      <c r="J5" t="n">
+        <v>0.005505894769751366</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.005505894769751366</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -618,17 +652,23 @@
         <v>0.3214207519680147</v>
       </c>
       <c r="F6" t="n">
+        <v>0.1495216707621249</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2315224003804702</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.007644446989037903</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.007422670006366282</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.007422670006366282</v>
       </c>
       <c r="I6" t="n">
         <v>0.007422670006366282</v>
       </c>
+      <c r="J6" t="n">
+        <v>0.007422670006366282</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.007422670006366282</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -649,17 +689,23 @@
         <v>0.4529987347186815</v>
       </c>
       <c r="F7" t="n">
+        <v>0.1274914190507727</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1437903966790513</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.01480934542793112</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0146735078807891</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0146735078807891</v>
       </c>
       <c r="I7" t="n">
         <v>0.0146735078807891</v>
       </c>
+      <c r="J7" t="n">
+        <v>0.0146735078807891</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0146735078807891</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -680,17 +726,23 @@
         <v>0.2980724967217734</v>
       </c>
       <c r="F8" t="n">
+        <v>0.1190363891049338</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1975660013659864</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.00406304427810302</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.003984402343444399</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.003984402343444399</v>
       </c>
       <c r="I8" t="n">
         <v>0.003984402343444399</v>
       </c>
+      <c r="J8" t="n">
+        <v>0.003984402343444399</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.003984402343444399</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -711,17 +763,23 @@
         <v>0.4591851235437238</v>
       </c>
       <c r="F9" t="n">
+        <v>0.3775947165777947</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4188757391762178</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.00850625435028695</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.008381416702775348</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.008381416702775348</v>
       </c>
       <c r="I9" t="n">
         <v>0.008381416702775348</v>
       </c>
+      <c r="J9" t="n">
+        <v>0.008381416702775348</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.008381416702775348</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -742,17 +800,23 @@
         <v>0.4820498735338685</v>
       </c>
       <c r="F10" t="n">
+        <v>0.3892718476895313</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4221375937265813</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.006973199290346847</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.006723692123455335</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.006723692123455335</v>
       </c>
       <c r="I10" t="n">
         <v>0.006723692123455335</v>
       </c>
+      <c r="J10" t="n">
+        <v>0.006723692123455335</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.006723692123455335</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -773,17 +837,23 @@
         <v>0.2234631248540299</v>
       </c>
       <c r="F11" t="n">
+        <v>0.1934736799039793</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2151582204154019</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.003970053641266211</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.003815090137714262</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.003815090137714262</v>
       </c>
       <c r="I11" t="n">
         <v>0.003815090137714262</v>
       </c>
+      <c r="J11" t="n">
+        <v>0.003815090137714262</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.003815090137714262</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -804,15 +874,21 @@
         <v>0.3644123743679737</v>
       </c>
       <c r="F12" t="n">
+        <v>0.366902159145133</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4151868095167823</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.004910825756979009</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>0.004815260872664972</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>0.004815260872664972</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>0.004815260872664972</v>
       </c>
     </row>
